--- a/sources/fact_extraction_viewpoint/economy-table26.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table26.xlsx
@@ -9767,8 +9767,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="\E\ \ \ #,##0.00;\E\ \ \ \-#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="\*\ \ \ #,##0.00;\*\ \ \ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\E\ \ \ #,##0.00;\E\ \ \ \-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\*\ \ \ #,##0.00;\*\ \ \ \-#,##0.00"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -9858,7 +9858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9880,12 +9880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F1F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9970,47 +9964,47 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -10287,8 +10281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284:R284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -10299,22 +10293,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10325,107 +10319,107 @@
       <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -10478,25 +10472,25 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15" customHeight="1">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="8" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14953,25 +14947,25 @@
       </c>
     </row>
     <row r="94" spans="2:18" ht="15" customHeight="1">
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="8" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19958,25 +19952,25 @@
       </c>
     </row>
     <row r="189" spans="2:18" ht="15" customHeight="1">
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="11"/>
-      <c r="L189" s="11"/>
-      <c r="M189" s="11"/>
-      <c r="N189" s="11"/>
-      <c r="O189" s="11"/>
-      <c r="P189" s="11"/>
-      <c r="Q189" s="11"/>
-      <c r="R189" s="8" t="s">
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18"/>
+      <c r="O189" s="18"/>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="18"/>
+      <c r="R189" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -24963,25 +24957,25 @@
       </c>
     </row>
     <row r="284" spans="2:18" ht="15" customHeight="1">
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="11"/>
-      <c r="J284" s="11"/>
-      <c r="K284" s="11"/>
-      <c r="L284" s="11"/>
-      <c r="M284" s="11"/>
-      <c r="N284" s="11"/>
-      <c r="O284" s="11"/>
-      <c r="P284" s="11"/>
-      <c r="Q284" s="11"/>
-      <c r="R284" s="8" t="s">
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="18"/>
+      <c r="L284" s="18"/>
+      <c r="M284" s="18"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
+      <c r="Q284" s="18"/>
+      <c r="R284" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -29597,10 +29591,10 @@
       </c>
     </row>
     <row r="373" spans="2:19">
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="S373" s="15" t="s">
+      <c r="S373" s="11" t="s">
         <v>0</v>
       </c>
     </row>
